--- a/ig/main/StructureDefinition-ror-organization.xlsx
+++ b/ig/main/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T15:55:07+00:00</t>
+    <t>2023-02-21T16:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-organization.xlsx
+++ b/ig/main/StructureDefinition-ror-organization.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-organization</t>
+    <t>http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-organization</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T16:28:41+00:00</t>
+    <t>2023-02-22T09:44:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -468,7 +468,7 @@
     <t>ror-organization-price</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-organization-price}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-organization-price}
 </t>
   </si>
   <si>
@@ -484,7 +484,7 @@
     <t>ror-drop-zone</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-drop-zone}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-drop-zone}
 </t>
   </si>
   <si>
@@ -504,7 +504,7 @@
     <t>ror-organization-territorial</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-organization-territorial}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-organization-territorial}
 </t>
   </si>
   <si>
@@ -514,7 +514,7 @@
     <t>ror-organization-financial-help-type</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-organization-financial-help-type}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-organization-financial-help-type}
 </t>
   </si>
   <si>
@@ -524,7 +524,7 @@
     <t>ror-organization-accomodation-family</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-organization-accomodation-family}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-organization-accomodation-family}
 </t>
   </si>
   <si>
@@ -534,7 +534,7 @@
     <t>ror-organization-nb-permanent-social-help-place</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-organization-nb-permanent-social-help-place}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-organization-nb-permanent-social-help-place}
 </t>
   </si>
   <si>
@@ -544,7 +544,7 @@
     <t>Nror-organization-nb-temporary-social-help-place</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-organization-nb-temporary-social-help-place}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-organization-nb-temporary-social-help-place}
 </t>
   </si>
   <si>
@@ -554,7 +554,7 @@
     <t>ror-accessibility-location</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-accessibility-location}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-accessibility-location}
 </t>
   </si>
   <si>
@@ -564,7 +564,7 @@
     <t>ror-level-recours-orsan</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-level-recours-orsan}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-level-recours-orsan}
 </t>
   </si>
   <si>
@@ -574,7 +574,7 @@
     <t>ror-care-without-patient-approval</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-care-without-patient-approval}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-care-without-patient-approval}
 </t>
   </si>
   <si>
@@ -584,7 +584,7 @@
     <t>ror-organization-information-ouverture-fermeture</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-organization-closing-type}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-organization-closing-type}
 </t>
   </si>
   <si>
@@ -597,7 +597,7 @@
     <t>ror-type-activity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-type-activity}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-type-activity}
 </t>
   </si>
   <si>
@@ -1633,7 +1633,7 @@
     <t>ror-address-name</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-address-name}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-address-name}
 </t>
   </si>
   <si>
@@ -1643,7 +1643,7 @@
     <t>ror-address-description</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-address-description}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-address-description}
 </t>
   </si>
   <si>
@@ -1653,7 +1653,7 @@
     <t>ror-address-status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-address-status}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-address-status}
 </t>
   </si>
   <si>
@@ -1663,7 +1663,7 @@
     <t>ror-geolocation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-geolocation}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-geolocation}
 </t>
   </si>
   <si>
@@ -1682,7 +1682,7 @@
     <t>ror-address-calculated-distance</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-address-calculated-distance}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-address-calculated-distance}
 </t>
   </si>
   <si>
@@ -1785,7 +1785,7 @@
     <t>ror-organization-address-line-iso-21090-adxp-locality</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-organization-address-line-iso-21090-adxp-locality}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-organization-address-line-iso-21090-adxp-locality}
 </t>
   </si>
   <si>
@@ -2011,7 +2011,7 @@
     <t>Organization.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrOrganization|http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-organization)
+    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrOrganization|http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-organization)
 </t>
   </si>
   <si>
@@ -2138,7 +2138,7 @@
     <t>ror-contact-description</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-contact-description}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-contact-description}
 </t>
   </si>
   <si>
@@ -2148,7 +2148,7 @@
     <t>ror-contact-fonction-contact</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-contact-fonction-contact}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-contact-fonction-contact}
 </t>
   </si>
   <si>
@@ -2158,7 +2158,7 @@
     <t>ror-contact-confidentiality-level</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-contact-confidentiality-level}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-contact-confidentiality-level}
 </t>
   </si>
   <si>
@@ -2251,7 +2251,7 @@
     <t>ror-telecom-confidentiality-level</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-telecom-confidentiality-level}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-telecom-confidentiality-level}
 </t>
   </si>
   <si>
@@ -2261,7 +2261,7 @@
     <t>ror-contact-telecom-usage</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-contact-telecom-usage}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-contact-telecom-usage}
 </t>
   </si>
   <si>

--- a/ig/main/StructureDefinition-ror-organization.xlsx
+++ b/ig/main/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T09:44:01+00:00</t>
+    <t>2023-02-24T13:00:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-organization.xlsx
+++ b/ig/main/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T13:00:27+00:00</t>
+    <t>2023-02-24T16:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-organization.xlsx
+++ b/ig/main/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T16:20:30+00:00</t>
+    <t>2023-02-24T16:22:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-organization.xlsx
+++ b/ig/main/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T16:22:39+00:00</t>
+    <t>2023-02-24T16:23:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-organization.xlsx
+++ b/ig/main/StructureDefinition-ror-organization.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-organization</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-organization</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T16:23:59+00:00</t>
+    <t>2023-02-27T11:21:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -468,7 +468,7 @@
     <t>ror-organization-price</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-organization-price}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-organization-price}
 </t>
   </si>
   <si>
@@ -484,7 +484,7 @@
     <t>ror-drop-zone</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-drop-zone}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-drop-zone}
 </t>
   </si>
   <si>
@@ -504,7 +504,7 @@
     <t>ror-organization-territorial</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-organization-territorial}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-organization-territorial}
 </t>
   </si>
   <si>
@@ -514,7 +514,7 @@
     <t>ror-organization-financial-help-type</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-organization-financial-help-type}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-organization-financial-help-type}
 </t>
   </si>
   <si>
@@ -524,7 +524,7 @@
     <t>ror-organization-accomodation-family</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-organization-accomodation-family}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-organization-accomodation-family}
 </t>
   </si>
   <si>
@@ -534,7 +534,7 @@
     <t>ror-organization-nb-permanent-social-help-place</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-organization-nb-permanent-social-help-place}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-organization-nb-permanent-social-help-place}
 </t>
   </si>
   <si>
@@ -544,7 +544,7 @@
     <t>Nror-organization-nb-temporary-social-help-place</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-organization-nb-temporary-social-help-place}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-organization-nb-temporary-social-help-place}
 </t>
   </si>
   <si>
@@ -554,7 +554,7 @@
     <t>ror-accessibility-location</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-accessibility-location}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-accessibility-location}
 </t>
   </si>
   <si>
@@ -564,7 +564,7 @@
     <t>ror-level-recours-orsan</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-level-recours-orsan}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-level-recours-orsan}
 </t>
   </si>
   <si>
@@ -574,7 +574,7 @@
     <t>ror-care-without-patient-approval</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-care-without-patient-approval}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-care-without-patient-approval}
 </t>
   </si>
   <si>
@@ -584,7 +584,7 @@
     <t>ror-organization-information-ouverture-fermeture</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-organization-closing-type}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-organization-closing-type}
 </t>
   </si>
   <si>
@@ -597,7 +597,7 @@
     <t>ror-type-activity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-type-activity}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-type-activity}
 </t>
   </si>
   <si>
@@ -1633,7 +1633,7 @@
     <t>ror-address-name</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-address-name}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-address-name}
 </t>
   </si>
   <si>
@@ -1643,7 +1643,7 @@
     <t>ror-address-description</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-address-description}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-address-description}
 </t>
   </si>
   <si>
@@ -1653,7 +1653,7 @@
     <t>ror-address-status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-address-status}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-address-status}
 </t>
   </si>
   <si>
@@ -1663,7 +1663,7 @@
     <t>ror-geolocation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-geolocation}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-geolocation}
 </t>
   </si>
   <si>
@@ -1682,7 +1682,7 @@
     <t>ror-address-calculated-distance</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-address-calculated-distance}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-address-calculated-distance}
 </t>
   </si>
   <si>
@@ -1785,7 +1785,7 @@
     <t>ror-organization-address-line-iso-21090-adxp-locality</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-organization-address-line-iso-21090-adxp-locality}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-organization-address-line-iso-21090-adxp-locality}
 </t>
   </si>
   <si>
@@ -2011,7 +2011,7 @@
     <t>Organization.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrOrganization|http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-organization)
+    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrOrganization|https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-organization)
 </t>
   </si>
   <si>
@@ -2138,7 +2138,7 @@
     <t>ror-contact-description</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-contact-description}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-contact-description}
 </t>
   </si>
   <si>
@@ -2148,7 +2148,7 @@
     <t>ror-contact-fonction-contact</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-contact-fonction-contact}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-contact-fonction-contact}
 </t>
   </si>
   <si>
@@ -2158,7 +2158,7 @@
     <t>ror-contact-confidentiality-level</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-contact-confidentiality-level}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-contact-confidentiality-level}
 </t>
   </si>
   <si>
@@ -2251,7 +2251,7 @@
     <t>ror-telecom-confidentiality-level</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-telecom-confidentiality-level}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-telecom-confidentiality-level}
 </t>
   </si>
   <si>
@@ -2261,7 +2261,7 @@
     <t>ror-contact-telecom-usage</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-contact-telecom-usage}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-contact-telecom-usage}
 </t>
   </si>
   <si>
@@ -2693,7 +2693,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="140.29296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="141.24609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/ig/main/StructureDefinition-ror-organization.xlsx
+++ b/ig/main/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T11:21:32+00:00</t>
+    <t>2023-02-28T09:39:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-organization.xlsx
+++ b/ig/main/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T09:39:29+00:00</t>
+    <t>2023-02-28T09:39:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-organization.xlsx
+++ b/ig/main/StructureDefinition-ror-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6714" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6713" uniqueCount="742">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T09:39:18+00:00</t>
+    <t>2023-03-19T15:21:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1665,15 +1665,6 @@
   <si>
     <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-geolocation}
 </t>
-  </si>
-  <si>
-    <t>The absolute geographic location</t>
-  </si>
-  <si>
-    <t>The absolute geographic location of the Location, expressed using the WGS84 datum (This is the same co-ordinate system used in KML).</t>
-  </si>
-  <si>
-    <t>The extension can be further extended to include unique geolocation identifiers, confidence, altitude, etc.</t>
   </si>
   <si>
     <t>Organization.address.extension:ror-address-calculated-distance</t>
@@ -18659,14 +18650,12 @@
         <v>518</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>519</v>
+        <v>146</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>521</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="N156" s="2"/>
       <c r="O156" s="2"/>
       <c r="P156" t="s" s="2">
         <v>70</v>
@@ -18732,13 +18721,13 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>484</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D157" t="s" s="2">
         <v>70</v>
@@ -18760,7 +18749,7 @@
         <v>70</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="L157" t="s" s="2">
         <v>146</v>
@@ -18834,10 +18823,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -18863,16 +18852,16 @@
         <v>98</v>
       </c>
       <c r="L158" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M158" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="N158" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="O158" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="M158" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="O158" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>70</v>
@@ -18885,7 +18874,7 @@
         <v>70</v>
       </c>
       <c r="T158" t="s" s="2">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="U158" t="s" s="2">
         <v>70</v>
@@ -18900,10 +18889,10 @@
         <v>212</v>
       </c>
       <c r="Y158" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="Z158" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AA158" t="s" s="2">
         <v>70</v>
@@ -18921,7 +18910,7 @@
         <v>70</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>71</v>
@@ -18938,10 +18927,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -18967,13 +18956,13 @@
         <v>98</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="O159" s="2"/>
       <c r="P159" t="s" s="2">
@@ -18987,7 +18976,7 @@
         <v>70</v>
       </c>
       <c r="T159" t="s" s="2">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="U159" t="s" s="2">
         <v>70</v>
@@ -19002,10 +18991,10 @@
         <v>212</v>
       </c>
       <c r="Y159" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="Z159" t="s" s="2">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AA159" t="s" s="2">
         <v>70</v>
@@ -19023,7 +19012,7 @@
         <v>70</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>71</v>
@@ -19040,10 +19029,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -19069,16 +19058,16 @@
         <v>200</v>
       </c>
       <c r="L160" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="M160" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="N160" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="O160" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="M160" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="O160" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="P160" t="s" s="2">
         <v>70</v>
@@ -19091,7 +19080,7 @@
         <v>70</v>
       </c>
       <c r="T160" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="U160" t="s" s="2">
         <v>70</v>
@@ -19127,7 +19116,7 @@
         <v>70</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>71</v>
@@ -19144,10 +19133,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -19173,10 +19162,10 @@
         <v>200</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="N161" t="s" s="2">
         <v>385</v>
@@ -19193,7 +19182,7 @@
         <v>70</v>
       </c>
       <c r="T161" t="s" s="2">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="U161" t="s" s="2">
         <v>70</v>
@@ -19229,7 +19218,7 @@
         <v>70</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>71</v>
@@ -19246,10 +19235,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -19346,10 +19335,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -19448,13 +19437,13 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D164" t="s" s="2">
         <v>70</v>
@@ -19476,7 +19465,7 @@
         <v>70</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="L164" t="s" s="2">
         <v>146</v>
@@ -19550,13 +19539,13 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D165" t="s" s="2">
         <v>70</v>
@@ -19578,13 +19567,13 @@
         <v>70</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="N165" s="2"/>
       <c r="O165" s="2"/>
@@ -19652,13 +19641,13 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D166" t="s" s="2">
         <v>70</v>
@@ -19680,13 +19669,13 @@
         <v>70</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="N166" s="2"/>
       <c r="O166" s="2"/>
@@ -19754,13 +19743,13 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D167" t="s" s="2">
         <v>70</v>
@@ -19782,13 +19771,13 @@
         <v>70</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -19856,13 +19845,13 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D168" t="s" s="2">
         <v>70</v>
@@ -19884,13 +19873,13 @@
         <v>70</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
@@ -19958,13 +19947,13 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D169" t="s" s="2">
         <v>70</v>
@@ -19986,13 +19975,13 @@
         <v>70</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="N169" s="2"/>
       <c r="O169" s="2"/>
@@ -20060,13 +20049,13 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D170" t="s" s="2">
         <v>70</v>
@@ -20088,13 +20077,13 @@
         <v>70</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" s="2"/>
@@ -20162,13 +20151,13 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D171" t="s" s="2">
         <v>70</v>
@@ -20190,13 +20179,13 @@
         <v>70</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" s="2"/>
@@ -20264,10 +20253,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -20293,10 +20282,10 @@
         <v>200</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="N172" s="2"/>
       <c r="O172" s="2"/>
@@ -20320,7 +20309,7 @@
         <v>70</v>
       </c>
       <c r="W172" t="s" s="2">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="X172" t="s" s="2">
         <v>70</v>
@@ -20347,7 +20336,7 @@
         <v>70</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>71</v>
@@ -20364,14 +20353,14 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="E173" s="2"/>
       <c r="F173" t="s" s="2">
@@ -20393,10 +20382,10 @@
         <v>200</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="N173" t="s" s="2">
         <v>385</v>
@@ -20413,7 +20402,7 @@
         <v>70</v>
       </c>
       <c r="T173" t="s" s="2">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="U173" t="s" s="2">
         <v>70</v>
@@ -20449,7 +20438,7 @@
         <v>70</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>71</v>
@@ -20466,14 +20455,14 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="E174" s="2"/>
       <c r="F174" t="s" s="2">
@@ -20495,13 +20484,13 @@
         <v>200</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="O174" s="2"/>
       <c r="P174" t="s" s="2">
@@ -20515,7 +20504,7 @@
         <v>70</v>
       </c>
       <c r="T174" t="s" s="2">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="U174" t="s" s="2">
         <v>70</v>
@@ -20551,7 +20540,7 @@
         <v>70</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>71</v>
@@ -20568,14 +20557,14 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E175" s="2"/>
       <c r="F175" t="s" s="2">
@@ -20597,10 +20586,10 @@
         <v>200</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="N175" t="s" s="2">
         <v>385</v>
@@ -20653,7 +20642,7 @@
         <v>70</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>71</v>
@@ -20670,14 +20659,14 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="E176" s="2"/>
       <c r="F176" t="s" s="2">
@@ -20699,10 +20688,10 @@
         <v>200</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="N176" t="s" s="2">
         <v>385</v>
@@ -20719,7 +20708,7 @@
         <v>70</v>
       </c>
       <c r="T176" t="s" s="2">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="U176" t="s" s="2">
         <v>70</v>
@@ -20755,7 +20744,7 @@
         <v>70</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>71</v>
@@ -20772,10 +20761,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -20801,13 +20790,13 @@
         <v>200</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="O177" s="2"/>
       <c r="P177" t="s" s="2">
@@ -20857,7 +20846,7 @@
         <v>70</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>71</v>
@@ -20874,10 +20863,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -20903,16 +20892,16 @@
         <v>240</v>
       </c>
       <c r="L178" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="M178" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="N178" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="O178" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="M178" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="N178" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="O178" t="s" s="2">
-        <v>624</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>70</v>
@@ -20925,7 +20914,7 @@
         <v>70</v>
       </c>
       <c r="T178" t="s" s="2">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="U178" t="s" s="2">
         <v>70</v>
@@ -20961,7 +20950,7 @@
         <v>70</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>71</v>
@@ -20978,10 +20967,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -21004,19 +20993,19 @@
         <v>78</v>
       </c>
       <c r="K179" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="L179" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="M179" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="N179" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="L179" t="s" s="2">
+      <c r="O179" t="s" s="2">
         <v>629</v>
-      </c>
-      <c r="M179" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="N179" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="O179" t="s" s="2">
-        <v>632</v>
       </c>
       <c r="P179" t="s" s="2">
         <v>70</v>
@@ -21065,7 +21054,7 @@
         <v>70</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>71</v>
@@ -21082,10 +21071,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -21182,10 +21171,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -21284,10 +21273,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -21313,13 +21302,13 @@
         <v>200</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="O182" s="2"/>
       <c r="P182" t="s" s="2">
@@ -21369,7 +21358,7 @@
         <v>70</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>71</v>
@@ -21378,7 +21367,7 @@
         <v>77</v>
       </c>
       <c r="AI182" t="s" s="2">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="AJ182" t="s" s="2">
         <v>90</v>
@@ -21386,10 +21375,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -21415,13 +21404,13 @@
         <v>92</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="O183" s="2"/>
       <c r="P183" t="s" s="2">
@@ -21450,10 +21439,10 @@
         <v>222</v>
       </c>
       <c r="Y183" t="s" s="2">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="Z183" t="s" s="2">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="AA183" t="s" s="2">
         <v>70</v>
@@ -21471,7 +21460,7 @@
         <v>70</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>71</v>
@@ -21488,10 +21477,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -21517,13 +21506,13 @@
         <v>193</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="O184" s="2"/>
       <c r="P184" t="s" s="2">
@@ -21573,7 +21562,7 @@
         <v>70</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>71</v>
@@ -21590,10 +21579,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -21619,13 +21608,13 @@
         <v>200</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="O185" s="2"/>
       <c r="P185" t="s" s="2">
@@ -21675,7 +21664,7 @@
         <v>70</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>71</v>
@@ -21692,10 +21681,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -21718,19 +21707,19 @@
         <v>70</v>
       </c>
       <c r="K186" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="L186" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="M186" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="N186" t="s" s="2">
         <v>659</v>
       </c>
-      <c r="L186" t="s" s="2">
+      <c r="O186" t="s" s="2">
         <v>660</v>
-      </c>
-      <c r="M186" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="N186" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="O186" t="s" s="2">
-        <v>663</v>
       </c>
       <c r="P186" t="s" s="2">
         <v>70</v>
@@ -21779,7 +21768,7 @@
         <v>70</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>71</v>
@@ -21796,10 +21785,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -21896,10 +21885,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -21998,13 +21987,13 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D189" t="s" s="2">
         <v>70</v>
@@ -22026,7 +22015,7 @@
         <v>70</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="L189" t="s" s="2">
         <v>146</v>
@@ -22100,13 +22089,13 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D190" t="s" s="2">
         <v>70</v>
@@ -22128,7 +22117,7 @@
         <v>70</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="L190" t="s" s="2">
         <v>146</v>
@@ -22202,13 +22191,13 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D191" t="s" s="2">
         <v>70</v>
@@ -22230,7 +22219,7 @@
         <v>70</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="L191" t="s" s="2">
         <v>146</v>
@@ -22304,14 +22293,14 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="E192" s="2"/>
       <c r="F192" t="s" s="2">
@@ -22333,10 +22322,10 @@
         <v>122</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="N192" t="s" s="2">
         <v>125</v>
@@ -22391,7 +22380,7 @@
         <v>70</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>71</v>
@@ -22408,10 +22397,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -22437,16 +22426,16 @@
         <v>217</v>
       </c>
       <c r="L193" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="M193" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="N193" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="O193" t="s" s="2">
         <v>681</v>
-      </c>
-      <c r="M193" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="N193" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="O193" t="s" s="2">
-        <v>684</v>
       </c>
       <c r="P193" t="s" s="2">
         <v>70</v>
@@ -22475,7 +22464,7 @@
       </c>
       <c r="Y193" s="2"/>
       <c r="Z193" t="s" s="2">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="AA193" t="s" s="2">
         <v>70</v>
@@ -22493,7 +22482,7 @@
         <v>70</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="AG193" t="s" s="2">
         <v>71</v>
@@ -22510,10 +22499,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -22536,19 +22525,19 @@
         <v>70</v>
       </c>
       <c r="K194" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="L194" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="M194" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="N194" t="s" s="2">
         <v>687</v>
       </c>
-      <c r="L194" t="s" s="2">
+      <c r="O194" t="s" s="2">
         <v>688</v>
-      </c>
-      <c r="M194" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="N194" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="O194" t="s" s="2">
-        <v>691</v>
       </c>
       <c r="P194" t="s" s="2">
         <v>70</v>
@@ -22597,7 +22586,7 @@
         <v>70</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>71</v>
@@ -22614,10 +22603,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -22650,7 +22639,7 @@
       </c>
       <c r="N195" s="2"/>
       <c r="O195" t="s" s="2">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="P195" t="s" s="2">
         <v>70</v>
@@ -22699,7 +22688,7 @@
         <v>70</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>71</v>
@@ -22711,15 +22700,15 @@
         <v>89</v>
       </c>
       <c r="AJ195" t="s" s="2">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -22816,10 +22805,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -22918,13 +22907,13 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="D198" t="s" s="2">
         <v>121</v>
@@ -22946,10 +22935,10 @@
         <v>70</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="M198" t="s" s="2">
         <v>135</v>
@@ -23022,13 +23011,13 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D199" t="s" s="2">
         <v>70</v>
@@ -23050,7 +23039,7 @@
         <v>70</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="L199" t="s" s="2">
         <v>146</v>
@@ -23124,13 +23113,13 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="D200" t="s" s="2">
         <v>70</v>
@@ -23152,7 +23141,7 @@
         <v>70</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="L200" t="s" s="2">
         <v>146</v>
@@ -23226,10 +23215,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -23255,10 +23244,10 @@
         <v>98</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="N201" t="s" s="2">
         <v>385</v>
@@ -23290,37 +23279,37 @@
         <v>212</v>
       </c>
       <c r="Y201" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="Z201" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="AA201" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB201" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC201" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD201" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE201" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF201" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="AG201" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH201" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI201" t="s" s="2">
         <v>710</v>
-      </c>
-      <c r="Z201" t="s" s="2">
-        <v>711</v>
-      </c>
-      <c r="AA201" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB201" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC201" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD201" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE201" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AF201" t="s" s="2">
-        <v>712</v>
-      </c>
-      <c r="AG201" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH201" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI201" t="s" s="2">
-        <v>713</v>
       </c>
       <c r="AJ201" t="s" s="2">
         <v>90</v>
@@ -23328,10 +23317,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -23357,16 +23346,16 @@
         <v>200</v>
       </c>
       <c r="L202" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="M202" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="N202" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="O202" t="s" s="2">
         <v>715</v>
-      </c>
-      <c r="M202" t="s" s="2">
-        <v>716</v>
-      </c>
-      <c r="N202" t="s" s="2">
-        <v>717</v>
-      </c>
-      <c r="O202" t="s" s="2">
-        <v>718</v>
       </c>
       <c r="P202" t="s" s="2">
         <v>70</v>
@@ -23415,7 +23404,7 @@
         <v>70</v>
       </c>
       <c r="AF202" t="s" s="2">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="AG202" t="s" s="2">
         <v>71</v>
@@ -23432,10 +23421,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -23461,16 +23450,16 @@
         <v>98</v>
       </c>
       <c r="L203" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="M203" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="N203" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="O203" t="s" s="2">
         <v>721</v>
-      </c>
-      <c r="M203" t="s" s="2">
-        <v>722</v>
-      </c>
-      <c r="N203" t="s" s="2">
-        <v>723</v>
-      </c>
-      <c r="O203" t="s" s="2">
-        <v>724</v>
       </c>
       <c r="P203" t="s" s="2">
         <v>70</v>
@@ -23498,10 +23487,10 @@
         <v>212</v>
       </c>
       <c r="Y203" t="s" s="2">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="Z203" t="s" s="2">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="AA203" t="s" s="2">
         <v>70</v>
@@ -23519,7 +23508,7 @@
         <v>70</v>
       </c>
       <c r="AF203" t="s" s="2">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="AG203" t="s" s="2">
         <v>71</v>
@@ -23536,10 +23525,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -23562,16 +23551,16 @@
         <v>78</v>
       </c>
       <c r="K204" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="L204" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="M204" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="N204" t="s" s="2">
         <v>729</v>
-      </c>
-      <c r="L204" t="s" s="2">
-        <v>730</v>
-      </c>
-      <c r="M204" t="s" s="2">
-        <v>731</v>
-      </c>
-      <c r="N204" t="s" s="2">
-        <v>732</v>
       </c>
       <c r="O204" s="2"/>
       <c r="P204" t="s" s="2">
@@ -23621,7 +23610,7 @@
         <v>70</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>71</v>
@@ -23638,10 +23627,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -23667,13 +23656,13 @@
         <v>240</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="N205" t="s" s="2">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="O205" s="2"/>
       <c r="P205" t="s" s="2">
@@ -23723,7 +23712,7 @@
         <v>70</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>71</v>
@@ -23740,10 +23729,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -23778,7 +23767,7 @@
         <v>479</v>
       </c>
       <c r="O206" t="s" s="2">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="P206" t="s" s="2">
         <v>70</v>
@@ -23827,7 +23816,7 @@
         <v>70</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="AG206" t="s" s="2">
         <v>71</v>
@@ -23844,10 +23833,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -23870,19 +23859,19 @@
         <v>70</v>
       </c>
       <c r="K207" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="L207" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="M207" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="N207" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="O207" t="s" s="2">
         <v>741</v>
-      </c>
-      <c r="L207" t="s" s="2">
-        <v>742</v>
-      </c>
-      <c r="M207" t="s" s="2">
-        <v>743</v>
-      </c>
-      <c r="N207" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="O207" t="s" s="2">
-        <v>744</v>
       </c>
       <c r="P207" t="s" s="2">
         <v>70</v>
@@ -23931,7 +23920,7 @@
         <v>70</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="AG207" t="s" s="2">
         <v>71</v>

--- a/ig/main/StructureDefinition-ror-organization.xlsx
+++ b/ig/main/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:21:05+00:00</t>
+    <t>2023-03-19T15:22:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-organization.xlsx
+++ b/ig/main/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:22:13+00:00</t>
+    <t>2023-03-19T15:23:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-organization.xlsx
+++ b/ig/main/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:23:16+00:00</t>
+    <t>2023-03-19T15:24:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-organization.xlsx
+++ b/ig/main/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:24:07+00:00</t>
+    <t>2023-03-19T15:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
